--- a/03_Outputs/all/01_TablasDescriptivas/idx2_Adultez_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx2_Adultez_vr.xlsx
@@ -886,225 +886,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A7765192ECBF642B9941230C1216E50" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f9b497815717cd7d6cdc8413a0649bd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="97399761-d0fd-4473-af46-db46fcae3ae6" xmlns:ns3="043d79eb-2b3a-4fe9-bdb7-cdfc642b4baf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5abb4445fbbe144c1dbe287b6077d1f6" ns2:_="" ns3:_="">
-    <xsd:import namespace="97399761-d0fd-4473-af46-db46fcae3ae6"/>
-    <xsd:import namespace="043d79eb-2b3a-4fe9-bdb7-cdfc642b4baf"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="97399761-d0fd-4473-af46-db46fcae3ae6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0aef40d5-b715-412d-bec7-270c58122046" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="043d79eb-2b3a-4fe9-bdb7-cdfc642b4baf" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ecb2ccfd-3b87-4396-8859-5e5b5da74e4e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="043d79eb-2b3a-4fe9-bdb7-cdfc642b4baf">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="043d79eb-2b3a-4fe9-bdb7-cdfc642b4baf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="97399761-d0fd-4473-af46-db46fcae3ae6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3215FA38-2EE1-4303-B658-0DE0AF733130}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51386142-1F5D-4650-AB89-5E62B84D2800}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEF25D21-D262-4589-AFED-15ACF9E9291C}"/>
 </file>
--- a/03_Outputs/all/01_TablasDescriptivas/idx2_Adultez_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx2_Adultez_vr.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>2.101245623993667</v>
+        <v>2.084185039293122</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.876804033171947</v>
+        <v>1.39666082068992</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.230184310974387</v>
+        <v>1.146026598624073</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.8186070231004428</v>
+        <v>0.7798614157520453</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.6486624602809832</v>
+        <v>0.5932661256408408</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.3244965484785797</v>
+        <v>5.561865504150811E-16</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -490,14 +490,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B8">
-        <v>5.517762421782772E-16</v>
+        <v>2.084185039293122</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>2.101245623993667</v>
+        <v>3.480845859983042</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>3.978049657165613</v>
+        <v>4.626872458607115</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.20823396814</v>
+        <v>5.406733874359161</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>6.026840991240443</v>
+        <v>6.000000000000002</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>6.675503451521426</v>
+        <v>6.000000000000003</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -598,14 +598,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B14">
-        <v>7.000000000000005</v>
+        <v>34.73641732155202</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -616,14 +616,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B15">
-        <v>7.000000000000006</v>
+        <v>23.27768034483199</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>30.01779462848092</v>
+        <v>19.10044331040121</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>26.81148618817064</v>
+        <v>12.99769026253408</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>17.57406158534837</v>
+        <v>9.887768760680677</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>11.69438604429203</v>
+        <v>9.269775840251347E-15</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -706,14 +706,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B20">
-        <v>9.266606575442609</v>
+        <v>34.73641732155202</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -724,14 +724,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B21">
-        <v>4.63566497826542</v>
+        <v>58.01409766638401</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B22">
-        <v>7.882517745403953E-15</v>
+        <v>77.11454097678524</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>30.01779462848092</v>
+        <v>90.1122312393193</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>56.82928081665156</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -800,84 +800,12 @@
         </is>
       </c>
       <c r="B25">
-        <v>74.40334240199994</v>
+        <v>100</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>86.09772844629197</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>95.36433502173458</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>99.99999999999999</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" t="inlineStr">
         <is>
           <t>pca</t>
         </is>
